--- a/Robotics_2/Project_Instructions/Midterm_Project.xlsx
+++ b/Robotics_2/Project_Instructions/Midterm_Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2nd Sem 2023-2024\Prep1 Robotics 2\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D6D12-B5F9-45AF-9DAD-1F1B96313357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597F88D-B195-4E7A-9529-B5BD36355B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD75BE68-D6E3-4041-B4B8-B46E0931F9AA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Midterm" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Midterm!$A$1:$R$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Midterm!$A$1:$R$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>COLLEGE OF ENGINEERING</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Forward and Inverse Kinematics</t>
   </si>
   <si>
-    <t>Submission Date: Week 9, March 25 - 29, 2024</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -531,6 +528,12 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
+  </si>
+  <si>
+    <t>Submission Date: April 1 -  5, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Written computations of the portfolio on long bond paper. </t>
   </si>
 </sst>
 </file>
@@ -661,13 +664,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -681,8 +681,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,80 +1142,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE6A9E2-6FAE-4975-982E-F7B7A89807E7}">
-  <dimension ref="A12:S51"/>
+  <dimension ref="A12:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:O24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1234,25 +1237,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1273,45 +1276,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1332,43 +1335,43 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
@@ -1391,22 +1394,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
@@ -1427,214 +1430,214 @@
     </row>
     <row r="26" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="B27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="B30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="B31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="B36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
@@ -1655,16 +1658,16 @@
     </row>
     <row r="38" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="B38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -1674,46 +1677,46 @@
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="B39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="B40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1731,7 +1734,7 @@
     <row r="42" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1749,7 +1752,7 @@
     <row r="43" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1767,7 +1770,7 @@
     <row r="44" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1785,7 +1788,7 @@
     <row r="45" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1804,7 +1807,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1823,7 +1826,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1842,7 +1845,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1859,56 +1862,68 @@
     </row>
     <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="B50:O50"/>
     <mergeCell ref="B21:Q22"/>
     <mergeCell ref="B28:O29"/>
     <mergeCell ref="B31:Q32"/>
@@ -1920,6 +1935,13 @@
     <mergeCell ref="B24:O24"/>
     <mergeCell ref="B26:O26"/>
     <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>

--- a/Robotics_2/Project_Instructions/Midterm_Project.xlsx
+++ b/Robotics_2/Project_Instructions/Midterm_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597F88D-B195-4E7A-9529-B5BD36355B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50970C4-3494-4746-A77B-F7E52BA124E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD75BE68-D6E3-4041-B4B8-B46E0931F9AA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Midterm" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Midterm!$A$1:$R$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Midterm!$A$1:$R$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>COLLEGE OF ENGINEERING</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t xml:space="preserve">D. Written computations of the portfolio on long bond paper. </t>
+  </si>
+  <si>
+    <t>IX. References</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE6A9E2-6FAE-4975-982E-F7B7A89807E7}">
-  <dimension ref="A12:S52"/>
+  <dimension ref="A12:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,10 +1865,10 @@
     </row>
     <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1881,49 +1884,68 @@
     </row>
     <row r="50" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
+      <c r="B50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B51:O51"/>
     <mergeCell ref="B21:Q22"/>
     <mergeCell ref="B28:O29"/>
     <mergeCell ref="B31:Q32"/>

--- a/Robotics_2/Project_Instructions/Midterm_Project.xlsx
+++ b/Robotics_2/Project_Instructions/Midterm_Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\Robotics_2\Project_Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50970C4-3494-4746-A77B-F7E52BA124E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367DB6D-CA68-4C9D-9314-6E54C5D94914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CD75BE68-D6E3-4041-B4B8-B46E0931F9AA}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{CD75BE68-D6E3-4041-B4B8-B46E0931F9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Midterm" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -682,12 +688,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1154,71 +1154,71 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -1240,25 +1240,25 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1279,45 +1279,45 @@
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1338,43 +1338,43 @@
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
@@ -1397,22 +1397,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
@@ -1433,214 +1433,214 @@
     </row>
     <row r="26" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="38" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -1680,41 +1680,41 @@
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
     </row>
     <row r="41" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
@@ -1903,20 +1903,20 @@
     </row>
     <row r="51" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
@@ -1944,6 +1944,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B51:O51"/>
     <mergeCell ref="B21:Q22"/>
@@ -1957,13 +1964,6 @@
     <mergeCell ref="B24:O24"/>
     <mergeCell ref="B26:O26"/>
     <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="B18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
